--- a/trunk/meditraxx/misc/print_view.xlsx
+++ b/trunk/meditraxx/misc/print_view.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PravatKumar\git\medit\meditraxx\misc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SaleTx" sheetId="1" r:id="rId1"/>
     <sheet name="SaleReport" sheetId="2" r:id="rId2"/>
+    <sheet name="Purchase Report" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Company Name</t>
   </si>
@@ -124,6 +120,9 @@
   </si>
   <si>
     <t>&lt;phone&gt;</t>
+  </si>
+  <si>
+    <t>PURCHASE REPORT</t>
   </si>
 </sst>
 </file>
@@ -354,6 +353,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,34 +370,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -400,47 +432,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,7 +713,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -769,95 +768,95 @@
       <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="H2" s="13" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="H2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="H3" s="14" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="H3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="11"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="H4" s="14" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="H4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="11"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="11"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
@@ -872,12 +871,12 @@
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
@@ -896,10 +895,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -910,10 +909,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -924,10 +923,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -938,10 +937,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -952,10 +951,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -966,10 +965,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -980,10 +979,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -994,10 +993,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1008,10 +1007,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1022,10 +1021,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1036,10 +1035,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1080,6 +1079,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:G7"/>
@@ -1096,12 +1101,6 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -1113,499 +1112,1003 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="G2" sqref="G2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="24">
+      <c r="A1" s="8">
         <v>0</v>
       </c>
-      <c r="B1" s="24">
+      <c r="B1" s="8">
         <v>0</v>
       </c>
-      <c r="C1" s="24">
+      <c r="C1" s="8">
         <v>1</v>
       </c>
-      <c r="D1" s="24">
+      <c r="D1" s="8">
         <v>2</v>
       </c>
-      <c r="E1" s="24">
+      <c r="E1" s="8">
         <v>3</v>
       </c>
-      <c r="F1" s="24">
+      <c r="F1" s="8">
         <v>4</v>
       </c>
-      <c r="G1" s="24">
+      <c r="G1" s="8">
         <v>5</v>
       </c>
-      <c r="H1" s="24">
+      <c r="H1" s="8">
         <v>6</v>
       </c>
-      <c r="I1" s="24">
+      <c r="I1" s="8">
         <v>7</v>
       </c>
-      <c r="J1" s="24">
+      <c r="J1" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
+      <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="20" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="37" t="s">
+      <c r="F8" s="33"/>
+      <c r="G8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="36" t="s">
+      <c r="H8" s="33"/>
+      <c r="I8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="36"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+      <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+      <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+      <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+      <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G30:H30"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G30:H30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="8">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="35"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
